--- a/Bounty Distribution.xlsx
+++ b/Bounty Distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Onasander\GitHub\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{076CB8D9-4B38-427B-A46B-4004A0F6C179}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7529A49-0C5A-4BDD-9E7B-1F43EC122F92}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12720" windowHeight="7980" xr2:uid="{57D86E80-0151-4266-8D01-F3876453D0C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Facebook</t>
   </si>
@@ -79,12 +79,21 @@
   </si>
   <si>
     <t>ICO Campain Bounty</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,11 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,368 +452,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58087851-AE05-4FEB-8A27-7B2FE5499DF4}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1">
+        <v>40</v>
+      </c>
+      <c r="C1">
+        <v>30</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="F1">
+        <v>21</v>
+      </c>
+      <c r="H1">
+        <v>30</v>
+      </c>
+      <c r="I1">
+        <v>35</v>
+      </c>
+      <c r="J1">
+        <v>40</v>
+      </c>
+      <c r="K1">
+        <v>30</v>
+      </c>
+      <c r="L1">
+        <v>30</v>
+      </c>
+      <c r="M1">
+        <v>32.5</v>
+      </c>
+      <c r="N1">
+        <v>30</v>
+      </c>
+      <c r="P1" s="3">
+        <f>AVERAGE(B1:O1)</f>
+        <v>30.772727272727273</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="1">
+        <v>14</v>
+      </c>
+      <c r="T1" s="1">
+        <f>(3000000*R1)/100</f>
+        <v>420000</v>
+      </c>
+      <c r="V1" s="4">
+        <f>T1*0.85</f>
+        <v>357000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="E2">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>35</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3">
+        <f>AVERAGE(B2:O2)</f>
+        <v>24.5</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" ref="T2:T20" si="0">(3000000*R2)/100</f>
+        <v>300000</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" ref="V2:V20" si="1">T2*0.85</f>
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3" s="3">
+        <f>AVERAGE(B3:O3)</f>
+        <v>18</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>270000</v>
+      </c>
+      <c r="V3" s="4">
+        <f t="shared" si="1"/>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
         <v>7.5</v>
       </c>
-      <c r="D1">
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>8.5</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="3">
+        <f>AVERAGE(B4:O4)</f>
+        <v>14.192307692307692</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1">
+        <v>8</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" si="1"/>
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="3">
+        <f>AVERAGE(B5:O5)</f>
+        <v>12.25</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1">
+        <v>7</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>178500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="P6" s="3">
+        <f>AVERAGE(B6:O6)</f>
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1">
+        <v>7</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="1"/>
+        <v>178500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>15</v>
       </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>20</v>
-      </c>
-      <c r="H1">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3">
-        <f>AVERAGE(B1:J1)</f>
-        <v>13.928571428571429</v>
-      </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
+      <c r="C7">
         <v>7.5</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3">
-        <f t="shared" ref="K2:K18" si="0">AVERAGE(B2:J2)</f>
-        <v>16.214285714285715</v>
-      </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D7">
         <v>15</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>13.083333333333334</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" si="0"/>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="0"/>
-        <v>28.2</v>
-      </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="0"/>
-        <v>20.25</v>
-      </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
       <c r="H7">
         <v>20</v>
       </c>
-      <c r="K7" s="3">
-        <f t="shared" si="0"/>
+      <c r="I7">
         <v>15</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
+        <f>AVERAGE(B7:O7)</f>
+        <v>10.807692307692308</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1">
+        <v>6</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="1"/>
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="R8" s="1">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="1"/>
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
+        <f>AVERAGE(B9:O9)</f>
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1">
+        <v>5</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="1"/>
+        <v>127500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="P10" s="3">
+        <f>AVERAGE(B10:O10)</f>
+        <v>8.5</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1">
+        <v>5</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="1"/>
+        <v>127500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
         <v>15</v>
       </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="P11" s="3">
+        <f>AVERAGE(B11:O11)</f>
+        <v>15.5</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1">
+        <v>4</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="1"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>2.5</v>
+      </c>
+      <c r="L12">
+        <v>2.5</v>
+      </c>
+      <c r="M12">
+        <v>2.5</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="P12" s="3">
+        <f>AVERAGE(B12:O12)</f>
+        <v>11.5625</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="1"/>
+        <v>102000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>2.5</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3">
+        <f>AVERAGE(B13:O13)</f>
+        <v>7.375</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="1"/>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
+        <f>AVERAGE(B14:O14)</f>
+        <v>5</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="1">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="T14" s="1">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="1"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="R15" s="1">
+        <v>2</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" si="1"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
-        <f t="shared" si="0"/>
+      <c r="C16">
+        <v>7.5</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="P16" s="3">
+        <f>AVERAGE(B16:O16)</f>
+        <v>7.916666666666667</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" si="1"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>2.5</v>
+      </c>
+      <c r="P17" s="3">
+        <f>AVERAGE(B17:O17)</f>
+        <v>2.5</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" si="1"/>
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
+        <f>AVERAGE(B18:O18)</f>
         <v>7</v>
       </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>7.5</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="0"/>
-        <v>15.5</v>
-      </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="1"/>
+        <v>38250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19">
         <v>2.5</v>
       </c>
-      <c r="K14" s="3">
-        <f t="shared" si="0"/>
+      <c r="P19" s="3">
+        <f>AVERAGE(B19:O19)</f>
         <v>2.5</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="3">
-        <f>SUM(K1:K27)</f>
-        <v>199.42619047619047</v>
-      </c>
+      <c r="R19" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="1"/>
+        <v>38250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>2.5</v>
+      </c>
+      <c r="K20">
+        <v>2.5</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="P20" s="3">
+        <f>AVERAGE(B20:O20)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="0"/>
+        <v>30000</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" si="1"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+      <c r="R26" s="1">
+        <f>SUM(R1:R25)</f>
+        <v>100</v>
+      </c>
+      <c r="T26" s="1">
+        <f>SUM(T1:T25)</f>
+        <v>3000000</v>
+      </c>
+      <c r="V26" s="5">
+        <f>SUM(V1:V25)</f>
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P27" s="3"/>
+      <c r="V27" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="A1:R27">
+    <sortCondition descending="1" ref="R1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
